--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422393.50743495</v>
+        <v>417094.1013233263</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433865</v>
+        <v>6742609.142433864</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.12948262</v>
+        <v>21420621.12948261</v>
       </c>
     </row>
     <row r="9">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="V20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>73.00117972968178</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>77.20538669489343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.00117972968165</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="I22" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>73.0011797296815</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>73.00117972968179</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>73.00117972968178</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="T24" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="U24" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R25" t="n">
-        <v>82.88054011090114</v>
+        <v>8.69762273147051</v>
       </c>
       <c r="S25" t="n">
-        <v>8.69762273147037</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="X25" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X26" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S28" t="n">
-        <v>73.00117972968165</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>73.00117972968168</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>8.69762273147043</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>73.00117972968171</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C34" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8.697622731470373</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="G35" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I36" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="C37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.697622731470341</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>75.05593188338555</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.00117972968165</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T41" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U41" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C42" t="n">
-        <v>73.00117972968171</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="43">
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="C20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="D20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="E20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="F20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="G20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="J20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="K20" t="n">
-        <v>6.630443208872091</v>
+        <v>88.68217791866432</v>
       </c>
       <c r="L20" t="n">
-        <v>88.68217791866422</v>
+        <v>88.68217791866432</v>
       </c>
       <c r="M20" t="n">
-        <v>167.4186910240203</v>
+        <v>88.68217791866432</v>
       </c>
       <c r="N20" t="n">
-        <v>249.4704257338124</v>
+        <v>170.7339126284566</v>
       </c>
       <c r="O20" t="n">
-        <v>331.5221604436045</v>
+        <v>197.1464114380115</v>
       </c>
       <c r="P20" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478037</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="S20" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="T20" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="U20" t="n">
-        <v>90.34816049261062</v>
+        <v>247.8044431598663</v>
       </c>
       <c r="V20" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761277</v>
       </c>
       <c r="W20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="X20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>174.0658777763491</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="C21" t="n">
-        <v>90.34816049261062</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="D21" t="n">
-        <v>90.34816049261062</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="E21" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="F21" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="G21" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="H21" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="J21" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K21" t="n">
-        <v>6.630443208872091</v>
+        <v>117.0662010663598</v>
       </c>
       <c r="L21" t="n">
-        <v>6.630443208872091</v>
+        <v>199.117935776152</v>
       </c>
       <c r="M21" t="n">
-        <v>85.36695631422816</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="N21" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="O21" t="n">
-        <v>249.4704257338124</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="P21" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="R21" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="S21" t="n">
-        <v>331.5221604436045</v>
+        <v>247.8044431598663</v>
       </c>
       <c r="T21" t="n">
-        <v>331.5221604436045</v>
+        <v>247.8044431598663</v>
       </c>
       <c r="U21" t="n">
-        <v>247.804443159866</v>
+        <v>247.8044431598663</v>
       </c>
       <c r="V21" t="n">
-        <v>247.804443159866</v>
+        <v>169.8192040741154</v>
       </c>
       <c r="W21" t="n">
-        <v>247.804443159866</v>
+        <v>169.8192040741154</v>
       </c>
       <c r="X21" t="n">
-        <v>247.804443159866</v>
+        <v>169.8192040741154</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.804443159866</v>
+        <v>86.10148679037673</v>
       </c>
     </row>
     <row r="22">
@@ -5899,61 +5899,61 @@
         <v>247.804443159866</v>
       </c>
       <c r="G22" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="H22" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238877</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M22" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130388</v>
+        <v>242.093543213039</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9605787043558</v>
+        <v>302.960578704356</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="S22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="T22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="U22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="V22" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436047</v>
       </c>
       <c r="W22" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X22" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y22" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="C23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="D23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="E23" t="n">
-        <v>90.34816049261062</v>
+        <v>257.783595060088</v>
       </c>
       <c r="F23" t="n">
-        <v>90.34816049261062</v>
+        <v>257.783595060088</v>
       </c>
       <c r="G23" t="n">
-        <v>6.630443208872091</v>
+        <v>174.0658777763493</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="J23" t="n">
-        <v>6.630443208872091</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K23" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955857</v>
       </c>
       <c r="L23" t="n">
-        <v>88.68217791866422</v>
+        <v>125.7501039955857</v>
       </c>
       <c r="M23" t="n">
-        <v>88.68217791866422</v>
+        <v>207.801838705378</v>
       </c>
       <c r="N23" t="n">
-        <v>115.094676728219</v>
+        <v>207.801838705378</v>
       </c>
       <c r="O23" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478037</v>
       </c>
       <c r="P23" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478037</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="U23" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="V23" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="W23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="X23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436049</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="C24" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="D24" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="E24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="F24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="G24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="J24" t="n">
         <v>35.01446635656757</v>
@@ -6072,46 +6072,46 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L24" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663598</v>
       </c>
       <c r="M24" t="n">
-        <v>35.01446635656757</v>
+        <v>199.117935776152</v>
       </c>
       <c r="N24" t="n">
-        <v>117.0662010663597</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="O24" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338124</v>
+        <v>249.4704257338127</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="S24" t="n">
-        <v>247.804443159866</v>
+        <v>247.8044431598663</v>
       </c>
       <c r="T24" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761277</v>
       </c>
       <c r="U24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="V24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="W24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="X24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238905</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="C25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="D25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="E25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="F25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="G25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="H25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="I25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M25" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130393</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043558</v>
+        <v>302.9605787043562</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436045</v>
+        <v>331.5221604436049</v>
       </c>
       <c r="Q25" t="n">
-        <v>266.5690725666234</v>
+        <v>266.5690725666238</v>
       </c>
       <c r="R25" t="n">
-        <v>182.8513552828849</v>
+        <v>257.783595060088</v>
       </c>
       <c r="S25" t="n">
-        <v>174.0658777763491</v>
+        <v>174.0658777763493</v>
       </c>
       <c r="T25" t="n">
-        <v>174.0658777763491</v>
+        <v>174.0658777763493</v>
       </c>
       <c r="U25" t="n">
-        <v>174.0658777763491</v>
+        <v>174.0658777763493</v>
       </c>
       <c r="V25" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763493</v>
       </c>
       <c r="W25" t="n">
-        <v>90.34816049261062</v>
+        <v>90.34816049261072</v>
       </c>
       <c r="X25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872099</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E26" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F26" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="G26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J26" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K26" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="L26" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="M26" t="n">
-        <v>88.68217791866422</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="N26" t="n">
-        <v>170.7339126284564</v>
+        <v>115.094676728219</v>
       </c>
       <c r="O26" t="n">
-        <v>197.1464114380112</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q26" t="n">
         <v>331.5221604436045</v>
@@ -6263,13 +6263,13 @@
         <v>331.5221604436045</v>
       </c>
       <c r="W26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X26" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y26" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K27" t="n">
-        <v>6.630443208872091</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="L27" t="n">
-        <v>88.68217791866422</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M27" t="n">
-        <v>170.7339126284564</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N27" t="n">
-        <v>170.7339126284564</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O27" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P27" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q27" t="n">
         <v>331.5221604436045</v>
@@ -6333,22 +6333,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T27" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U27" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V27" t="n">
-        <v>90.34816049261062</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W27" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X27" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.630443208872061</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571536</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233593</v>
+        <v>80.3438561123359</v>
       </c>
       <c r="M28" t="n">
         <v>160.0418085032467</v>
@@ -6406,28 +6406,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R28" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S28" t="n">
         <v>174.0658777763491</v>
       </c>
       <c r="T28" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="U28" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="V28" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="W28" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X28" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C29" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D29" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="E29" t="n">
-        <v>6.630443208872091</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="F29" t="n">
-        <v>6.630443208872091</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="G29" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H29" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I29" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J29" t="n">
-        <v>43.69836928579349</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K29" t="n">
-        <v>43.69836928579349</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="L29" t="n">
-        <v>43.69836928579349</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="M29" t="n">
-        <v>125.7501039955856</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="N29" t="n">
-        <v>207.8018387053777</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P29" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q29" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R29" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S29" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T29" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U29" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V29" t="n">
-        <v>174.0658777763491</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="W29" t="n">
-        <v>90.34816049261062</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="X29" t="n">
-        <v>90.34816049261062</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.34816049261062</v>
+        <v>257.7835950600876</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J30" t="n">
         <v>35.01446635656757</v>
@@ -6546,16 +6546,16 @@
         <v>117.0662010663597</v>
       </c>
       <c r="L30" t="n">
-        <v>167.4186910240203</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M30" t="n">
+        <v>117.0662010663597</v>
+      </c>
+      <c r="N30" t="n">
+        <v>167.4186910240202</v>
+      </c>
+      <c r="O30" t="n">
         <v>249.4704257338124</v>
-      </c>
-      <c r="N30" t="n">
-        <v>249.4704257338124</v>
-      </c>
-      <c r="O30" t="n">
-        <v>331.5221604436045</v>
       </c>
       <c r="P30" t="n">
         <v>331.5221604436045</v>
@@ -6567,7 +6567,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S30" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T30" t="n">
         <v>247.804443159866</v>
@@ -6576,16 +6576,16 @@
         <v>247.804443159866</v>
       </c>
       <c r="V30" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W30" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X30" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="Y30" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="E31" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F31" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="G31" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="H31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K31" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233591</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M31" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O31" t="n">
         <v>302.9605787043558</v>
@@ -6640,31 +6640,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R31" t="n">
-        <v>182.8513552828849</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S31" t="n">
-        <v>99.1336379991464</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T31" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36900859238898</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J32" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K32" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="L32" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="M32" t="n">
-        <v>88.68217791866422</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="N32" t="n">
-        <v>170.7339126284564</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="O32" t="n">
         <v>249.4704257338124</v>
@@ -6722,28 +6722,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="V32" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W32" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="X32" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.34816049261062</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C33" t="n">
-        <v>90.34816049261062</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J33" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K33" t="n">
-        <v>88.68217791866422</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L33" t="n">
-        <v>167.4186910240203</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4186910240203</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N33" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="O33" t="n">
+        <v>199.1179357761518</v>
+      </c>
+      <c r="P33" t="n">
         <v>249.4704257338124</v>
-      </c>
-      <c r="P33" t="n">
-        <v>331.5221604436045</v>
       </c>
       <c r="Q33" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R33" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S33" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T33" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U33" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V33" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W33" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X33" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>182.8513552828849</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C34" t="n">
-        <v>99.13363799914634</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D34" t="n">
-        <v>15.41592071540782</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K34" t="n">
         <v>14.60839277571539</v>
@@ -6877,31 +6877,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R34" t="n">
-        <v>266.5690725666234</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X34" t="n">
-        <v>266.5690725666234</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.8513552828849</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D35" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36900859238898</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J35" t="n">
-        <v>43.69836928579349</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K35" t="n">
-        <v>125.7501039955856</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="L35" t="n">
-        <v>125.7501039955856</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="M35" t="n">
         <v>125.7501039955856</v>
       </c>
       <c r="N35" t="n">
-        <v>125.7501039955856</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="O35" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="P35" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q35" t="n">
         <v>331.5221604436045</v>
@@ -6971,16 +6971,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V35" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W35" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X35" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C36" t="n">
-        <v>80.36900859238898</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D36" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E36" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F36" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G36" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H36" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I36" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J36" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K36" t="n">
-        <v>88.68217791866422</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L36" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N36" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O36" t="n">
         <v>249.4704257338124</v>
@@ -7038,28 +7038,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="T36" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="U36" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V36" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W36" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X36" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="37">
@@ -7072,28 +7072,28 @@
         <v>174.0658777763491</v>
       </c>
       <c r="C37" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D37" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E37" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K37" t="n">
         <v>14.60839277571539</v>
@@ -7114,31 +7114,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q37" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R37" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S37" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T37" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U37" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V37" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W37" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X37" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y37" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J38" t="n">
-        <v>43.69836928579349</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K38" t="n">
-        <v>125.7501039955856</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="L38" t="n">
-        <v>167.4186910240203</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="M38" t="n">
-        <v>167.4186910240203</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="N38" t="n">
-        <v>249.4704257338124</v>
+        <v>115.094676728219</v>
       </c>
       <c r="O38" t="n">
-        <v>331.5221604436045</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P38" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q38" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R38" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y38" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>164.0867258761275</v>
+        <v>82.44451581835246</v>
       </c>
       <c r="C39" t="n">
-        <v>80.36900859238898</v>
+        <v>82.44451581835246</v>
       </c>
       <c r="D39" t="n">
-        <v>80.36900859238898</v>
+        <v>82.44451581835246</v>
       </c>
       <c r="E39" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F39" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J39" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K39" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L39" t="n">
-        <v>85.36695631422816</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M39" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N39" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O39" t="n">
         <v>331.5221604436045</v>
@@ -7275,28 +7275,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R39" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="S39" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="T39" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="U39" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="V39" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="W39" t="n">
-        <v>247.804443159866</v>
+        <v>166.162233102091</v>
       </c>
       <c r="X39" t="n">
-        <v>164.0867258761275</v>
+        <v>82.44451581835246</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.0867258761275</v>
+        <v>82.44451581835246</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.0867258761274</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0867258761274</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D40" t="n">
-        <v>164.0867258761274</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36900859238892</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36900859238892</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36900859238892</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36900859238892</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36900859238892</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J40" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K40" t="n">
         <v>14.60839277571539</v>
@@ -7354,28 +7354,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R40" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S40" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="U40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="V40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="X40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="G41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="H41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J41" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K41" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L41" t="n">
-        <v>88.68217791866422</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M41" t="n">
-        <v>170.7339126284564</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="N41" t="n">
-        <v>252.7856473382485</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="O41" t="n">
-        <v>279.1981461478033</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P41" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q41" t="n">
         <v>331.5221604436045</v>
@@ -7436,25 +7436,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T41" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U41" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="V41" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="X41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.36900859238898</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J42" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K42" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L42" t="n">
-        <v>85.36695631422816</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M42" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N42" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O42" t="n">
         <v>331.5221604436045</v>
@@ -7533,7 +7533,7 @@
         <v>247.804443159866</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="D43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G43" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="H43" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="I43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M43" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O43" t="n">
         <v>302.9605787043558</v>
@@ -7591,13 +7591,13 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R43" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S43" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T43" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U43" t="n">
         <v>247.804443159866</v>
@@ -7606,13 +7606,13 @@
         <v>247.804443159866</v>
       </c>
       <c r="W43" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X43" t="n">
-        <v>90.34816049261062</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="44">
@@ -9401,25 +9401,25 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654828</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M20" t="n">
-        <v>207.6940605373522</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N20" t="n">
-        <v>208.4561555814414</v>
+        <v>208.4561555814415</v>
       </c>
       <c r="O20" t="n">
-        <v>214.927993750524</v>
+        <v>158.726745366446</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5489424727328</v>
+        <v>230.429482583634</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437704</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007287</v>
+        <v>153.8287495809741</v>
       </c>
       <c r="M21" t="n">
-        <v>142.772653367078</v>
+        <v>114.1019229148604</v>
       </c>
       <c r="N21" t="n">
-        <v>133.2409716528566</v>
+        <v>50.36043154195551</v>
       </c>
       <c r="O21" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P21" t="n">
         <v>157.3975706350561</v>
@@ -9568,7 +9568,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>170.61994418911</v>
+        <v>170.6199441891101</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654828</v>
       </c>
       <c r="L23" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M23" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287018</v>
       </c>
       <c r="N23" t="n">
-        <v>152.2549071973633</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O23" t="n">
-        <v>214.927993750524</v>
+        <v>204.1649359046993</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,22 +9720,22 @@
         <v>87.56255053286915</v>
       </c>
       <c r="L24" t="n">
-        <v>70.94820947007287</v>
+        <v>153.8287495809741</v>
       </c>
       <c r="M24" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584277</v>
       </c>
       <c r="N24" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092895</v>
       </c>
       <c r="O24" t="n">
-        <v>119.3752946937541</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P24" t="n">
-        <v>157.3975706350561</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.1166323325361</v>
+        <v>183.1166323325362</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9805,7 +9805,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>170.61994418911</v>
+        <v>170.6199441891104</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>146.0645877545816</v>
@@ -9881,13 +9881,13 @@
         <v>143.9315300967061</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>197.6930977356166</v>
       </c>
       <c r="O26" t="n">
-        <v>158.7267453664459</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P26" t="n">
         <v>230.4294825836339</v>
@@ -9954,25 +9954,25 @@
         <v>97.42030488819118</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>150.4800408896244</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>146.1213620584275</v>
       </c>
       <c r="N27" t="n">
-        <v>50.36043154195551</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O27" t="n">
-        <v>148.0460251459717</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P27" t="n">
         <v>74.51703052415492</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K29" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L29" t="n">
         <v>143.9315300967061</v>
@@ -10121,16 +10121,16 @@
         <v>211.0427692287017</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O29" t="n">
-        <v>174.1369354865266</v>
+        <v>158.7267453664459</v>
       </c>
       <c r="P29" t="n">
         <v>230.4294825836339</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,19 +10194,19 @@
         <v>170.4430906437703</v>
       </c>
       <c r="L30" t="n">
-        <v>121.8093104374068</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M30" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N30" t="n">
-        <v>50.36043154195551</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O30" t="n">
         <v>151.3947338373213</v>
       </c>
       <c r="P30" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q30" t="n">
         <v>100.2360922216349</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>146.0645877545816</v>
@@ -10358,10 +10358,10 @@
         <v>211.0427692287017</v>
       </c>
       <c r="N32" t="n">
-        <v>208.4561555814414</v>
+        <v>167.665097317444</v>
       </c>
       <c r="O32" t="n">
-        <v>211.5792850591744</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P32" t="n">
         <v>230.4294825836339</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L33" t="n">
-        <v>150.4800408896244</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M33" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N33" t="n">
-        <v>50.36043154195551</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O33" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P33" t="n">
-        <v>157.3975706350561</v>
+        <v>125.3781314914888</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9451278654827</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L35" t="n">
         <v>143.9315300967061</v>
       </c>
       <c r="M35" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N35" t="n">
-        <v>125.5756154705403</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O35" t="n">
         <v>204.1649359046992</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>170.4430906437703</v>
       </c>
       <c r="L36" t="n">
-        <v>150.4800408896244</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M36" t="n">
-        <v>63.24082194752643</v>
+        <v>114.1019229148603</v>
       </c>
       <c r="N36" t="n">
         <v>50.36043154195551</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P36" t="n">
-        <v>157.3975706350561</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q36" t="n">
         <v>100.2360922216349</v>
@@ -10823,25 +10823,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9451278654827</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L38" t="n">
-        <v>186.0210119436098</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M38" t="n">
         <v>128.1622291178006</v>
       </c>
       <c r="N38" t="n">
-        <v>208.4561555814414</v>
+        <v>197.6930977356166</v>
       </c>
       <c r="O38" t="n">
         <v>214.927993750524</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L39" t="n">
         <v>121.8093104374068</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584276</v>
+        <v>146.1213620584275</v>
       </c>
       <c r="N39" t="n">
         <v>133.2409716528566</v>
       </c>
       <c r="O39" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P39" t="n">
         <v>74.51703052415492</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L41" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M41" t="n">
-        <v>211.0427692287017</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N41" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O41" t="n">
-        <v>158.7267453664459</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P41" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L42" t="n">
         <v>121.8093104374068</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>146.1213620584275</v>
       </c>
       <c r="N42" t="n">
         <v>133.2409716528566</v>
       </c>
       <c r="O42" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P42" t="n">
         <v>74.51703052415492</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>299.0498299613606</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24017,19 +24017,19 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S20" t="n">
-        <v>122.7578760324432</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T20" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U20" t="n">
         <v>168.4185574000761</v>
       </c>
       <c r="V20" t="n">
-        <v>244.8717183592338</v>
+        <v>244.8717183592337</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>276.2397889877312</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.53200392018563</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>74.76454034449981</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24066,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,16 +24096,16 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494328</v>
       </c>
       <c r="T21" t="n">
         <v>198.9097025254507</v>
       </c>
       <c r="U21" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>155.5952004545318</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664031</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.72876027497371</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H22" t="n">
-        <v>77.02575523272273</v>
+        <v>77.02575523272263</v>
       </c>
       <c r="I22" t="n">
-        <v>64.71976952197846</v>
+        <v>64.71976952197836</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90369780277223</v>
+        <v>1.902518073090732</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256898</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>308.92919034258</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>331.8402549434936</v>
+        <v>331.8402549434935</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5149838897102</v>
+        <v>250.6344437788089</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>105.1600127418127</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24260,13 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U23" t="n">
-        <v>178.2979177812956</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V23" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>84.64390072571916</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,13 +24333,13 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S24" t="n">
-        <v>83.01913172494338</v>
+        <v>83.01913172494328</v>
       </c>
       <c r="T24" t="n">
-        <v>125.908522795769</v>
+        <v>116.0291624145494</v>
       </c>
       <c r="U24" t="n">
-        <v>143.0403573209545</v>
+        <v>143.0403573209543</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.67557268525354</v>
+        <v>156.8584900646842</v>
       </c>
       <c r="S25" t="n">
-        <v>210.7697712942189</v>
+        <v>136.5868539147881</v>
       </c>
       <c r="T25" t="n">
         <v>226.8302394620306</v>
@@ -24421,13 +24421,13 @@
         <v>286.3047908462834</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256898</v>
       </c>
       <c r="X25" t="n">
-        <v>142.829115278136</v>
+        <v>142.8291152781359</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299.8533015525794</v>
+        <v>299.8533015525795</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7207950543947</v>
+        <v>341.7196153247131</v>
       </c>
       <c r="H26" t="n">
         <v>333.5149838897102</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>266.3604286065119</v>
       </c>
       <c r="X26" t="n">
-        <v>296.7299209487874</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>99.70731925863407</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24573,19 +24573,19 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T27" t="n">
-        <v>125.908522795769</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U27" t="n">
         <v>143.0403573209545</v>
       </c>
       <c r="V27" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>168.8144430500185</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925764</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,19 +24646,19 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R28" t="n">
-        <v>82.67557268525354</v>
+        <v>92.554933066473</v>
       </c>
       <c r="S28" t="n">
-        <v>146.4662142960076</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U28" t="n">
         <v>286.3047908462834</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525795</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7207950543947</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H29" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I29" t="n">
         <v>188.040552852714</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.31249511198764</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S29" t="n">
         <v>195.7590557621249</v>
       </c>
       <c r="T29" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U29" t="n">
         <v>251.2990975109773</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W29" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>89.8279588774146</v>
+        <v>99.70731925863407</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,25 +24807,25 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S30" t="n">
-        <v>83.01913172494338</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T30" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145496</v>
       </c>
       <c r="U30" t="n">
         <v>225.9208974318556</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925764</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.6815160476227</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.55342253566805</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.54050791203012</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7299400046554</v>
+        <v>84.84939989375424</v>
       </c>
       <c r="H31" t="n">
-        <v>159.9062953436239</v>
+        <v>86.9051156139422</v>
       </c>
       <c r="I31" t="n">
         <v>147.6003096328796</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R31" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S31" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T31" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U31" t="n">
-        <v>277.607168114813</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>281.6818618910012</v>
+        <v>281.6818618910013</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>30.4331347307682</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U32" t="n">
         <v>251.2990975109773</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>93.53200392018567</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.56452545373762</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248276</v>
       </c>
       <c r="G33" t="n">
         <v>137.0321504965985</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.824608227515583</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S33" t="n">
-        <v>83.01913172494338</v>
+        <v>83.01913172494339</v>
       </c>
       <c r="T33" t="n">
         <v>198.9097025254507</v>
@@ -25053,7 +25053,7 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103617</v>
       </c>
       <c r="C34" t="n">
-        <v>84.3662809877267</v>
+        <v>94.24564136894617</v>
       </c>
       <c r="D34" t="n">
-        <v>65.73493290731122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>137.7363399150988</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525356</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T34" t="n">
         <v>226.8302394620306</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>299.8533015525794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25160,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>299.0498299613606</v>
+        <v>299.0498299613607</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>333.8748660120298</v>
       </c>
       <c r="G35" t="n">
-        <v>341.719615324713</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H35" t="n">
         <v>333.5149838897102</v>
@@ -25211,7 +25211,7 @@
         <v>251.2990975109773</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,10 +25233,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56452545373763</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,10 +25248,10 @@
         <v>137.0321504965985</v>
       </c>
       <c r="H36" t="n">
-        <v>109.2282977457949</v>
+        <v>26.34775763489374</v>
       </c>
       <c r="I36" t="n">
-        <v>5.675153416007873</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S36" t="n">
         <v>165.8996718358445</v>
       </c>
       <c r="T36" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V36" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.95144007103616</v>
+        <v>106.8308004522556</v>
       </c>
       <c r="C37" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>65.73493290731122</v>
+        <v>65.73493290731123</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.54050791203012</v>
       </c>
       <c r="G37" t="n">
         <v>167.7299400046554</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R37" t="n">
-        <v>156.8584900646843</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S37" t="n">
         <v>219.4673940256893</v>
@@ -25366,7 +25366,7 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>341.719615324713</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H38" t="n">
         <v>333.5149838897102</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.43313473076819</v>
+        <v>40.31249511198764</v>
       </c>
       <c r="S38" t="n">
         <v>112.8785156512237</v>
@@ -25470,19 +25470,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>82.58914857201539</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>64.03097076691678</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H39" t="n">
         <v>109.2282977457949</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8996718358445</v>
       </c>
       <c r="T39" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145496</v>
       </c>
       <c r="U39" t="n">
         <v>225.9208974318556</v>
@@ -25530,10 +25530,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>122.8924450925763</v>
+        <v>122.8924450925764</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.55342253566803</v>
+        <v>63.55342253566805</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25570,7 +25570,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J40" t="n">
-        <v>1.902518073090576</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R40" t="n">
-        <v>165.5561127961547</v>
+        <v>92.554933066473</v>
       </c>
       <c r="S40" t="n">
         <v>136.5868539147882</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U40" t="n">
         <v>286.3047908462834</v>
@@ -25643,7 +25643,7 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H41" t="n">
-        <v>333.5149838897102</v>
+        <v>260.5138041600285</v>
       </c>
       <c r="I41" t="n">
         <v>188.040552852714</v>
@@ -25676,19 +25676,19 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T41" t="n">
-        <v>147.5472167125588</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4185574000761</v>
+        <v>168.4185574000762</v>
       </c>
       <c r="V41" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.6526435389662</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C42" t="n">
-        <v>99.70731925863403</v>
+        <v>99.70731925863407</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7299400046554</v>
+        <v>84.84939989375424</v>
       </c>
       <c r="H43" t="n">
-        <v>159.9062953436239</v>
+        <v>86.9051156139422</v>
       </c>
       <c r="I43" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197848</v>
       </c>
       <c r="J43" t="n">
         <v>74.90369780277223</v>
@@ -25831,7 +25831,7 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R43" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525356</v>
       </c>
       <c r="S43" t="n">
         <v>219.4673940256893</v>
@@ -25840,19 +25840,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>387211.4021779193</v>
+        <v>387211.4021779194</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387211.4021779193</v>
+        <v>387211.4021779195</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387211.4021779193</v>
+        <v>387211.4021779194</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387211.4021779194</v>
+        <v>387211.4021779193</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387211.4021779194</v>
+        <v>387211.4021779192</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387211.4021779194</v>
+        <v>387211.4021779195</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387211.4021779192</v>
+        <v>387211.4021779193</v>
       </c>
     </row>
     <row r="16">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>37682.21760041432</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="F4" t="n">
-        <v>37682.21760041431</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="G4" t="n">
-        <v>37682.21760041432</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="H4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733386</v>
       </c>
       <c r="I4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733386</v>
       </c>
       <c r="J4" t="n">
-        <v>50764.11856944543</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="K4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="L4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="M4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733383</v>
       </c>
       <c r="N4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="O4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="P4" t="n">
-        <v>37682.21760041431</v>
+        <v>38163.40506354706</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>3155.728478979676</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722471</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722471</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="P5" t="n">
         <v>3155.728478979676</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20871.63814463489</v>
+        <v>20126.10276572319</v>
       </c>
       <c r="C6" t="n">
-        <v>20871.6381446349</v>
+        <v>20126.10276572318</v>
       </c>
       <c r="D6" t="n">
-        <v>20871.6381446349</v>
+        <v>20126.10276572318</v>
       </c>
       <c r="E6" t="n">
-        <v>-37845.95720515627</v>
+        <v>-38327.14466828899</v>
       </c>
       <c r="F6" t="n">
-        <v>78453.20459290376</v>
+        <v>77972.01712977102</v>
       </c>
       <c r="G6" t="n">
-        <v>78453.20459290374</v>
+        <v>77972.01712977102</v>
       </c>
       <c r="H6" t="n">
-        <v>62624.17176312953</v>
+        <v>61976.85119524111</v>
       </c>
       <c r="I6" t="n">
-        <v>84986.08740991165</v>
+        <v>84338.76684202327</v>
       </c>
       <c r="J6" t="n">
-        <v>84986.08740991169</v>
+        <v>84338.76684202325</v>
       </c>
       <c r="K6" t="n">
-        <v>84986.08740991168</v>
+        <v>84338.76684202327</v>
       </c>
       <c r="L6" t="n">
-        <v>84986.08740991165</v>
+        <v>84338.76684202327</v>
       </c>
       <c r="M6" t="n">
-        <v>84986.08740991168</v>
+        <v>84338.76684202327</v>
       </c>
       <c r="N6" t="n">
-        <v>84986.08740991165</v>
+        <v>84338.76684202328</v>
       </c>
       <c r="O6" t="n">
-        <v>84986.08740991168</v>
+        <v>84338.76684202325</v>
       </c>
       <c r="P6" t="n">
-        <v>78453.20459290376</v>
+        <v>77972.01712977102</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="L20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="O20" t="n">
-        <v>82.88054011090114</v>
+        <v>26.67929172682313</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="M21" t="n">
-        <v>79.53183141955158</v>
+        <v>50.86110096733402</v>
       </c>
       <c r="N21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="O22" t="n">
         <v>61.48185403163331</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="L23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="N23" t="n">
-        <v>26.67929172682305</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507649</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>52.85253969272853</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="N24" t="n">
-        <v>82.88054011090114</v>
+        <v>50.86110096733402</v>
       </c>
       <c r="O24" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090124</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090155</v>
       </c>
       <c r="O25" t="n">
         <v>61.48185403163331</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507629</v>
       </c>
       <c r="O26" t="n">
-        <v>26.67929172682305</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P26" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q26" t="n">
         <v>52.85253969272853</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955154</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O27" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O28" t="n">
         <v>61.48185403163331</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>42.08948184690371</v>
+        <v>26.67929172682302</v>
       </c>
       <c r="P29" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K30" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L30" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>50.86110096733389</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O31" t="n">
         <v>61.48185403163331</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N32" t="n">
-        <v>82.88054011090114</v>
+        <v>42.08948184690368</v>
       </c>
       <c r="O32" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090114</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O34" t="n">
         <v>61.48185403163331</v>
@@ -37306,22 +37306,22 @@
         <v>37.44234957264788</v>
       </c>
       <c r="K35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O35" t="n">
         <v>72.11748226507632</v>
       </c>
       <c r="P35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>52.85253969272853</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L36" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O37" t="n">
         <v>61.48185403163331</v>
@@ -37543,25 +37543,25 @@
         <v>37.44234957264788</v>
       </c>
       <c r="K38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507629</v>
       </c>
       <c r="O38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L39" t="n">
-        <v>50.86110096733393</v>
+        <v>50.86110096733389</v>
       </c>
       <c r="M39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090111</v>
       </c>
       <c r="O40" t="n">
         <v>61.48185403163331</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507629</v>
       </c>
       <c r="N41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>26.67929172682305</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q41" t="n">
         <v>52.85253969272853</v>
@@ -37859,19 +37859,19 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L42" t="n">
-        <v>50.86110096733393</v>
+        <v>50.86110096733389</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O43" t="n">
         <v>61.48185403163331</v>
